--- a/dist/My Movie Library.xlsx
+++ b/dist/My Movie Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\TMDBScrappers\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7833AE-7C41-41CA-927C-B08229BFD84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8FF129-549C-41EE-A580-7DE41D10131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5172" yWindow="2508" windowWidth="17280" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4824" yWindow="2160" windowWidth="17280" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Title</t>
   </si>
@@ -50,12 +50,6 @@
     <t>Image URL</t>
   </si>
   <si>
-    <t>Sound Of Music</t>
-  </si>
-  <si>
-    <t>The Sound of Music (1965)</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -102,6 +96,9 @@
   </si>
   <si>
     <t>https://media.themoviedb.org/t/p/w300_and_h450_bestv2/gIhS0VC7YzI8pj6zfS3KxsxV0dS.jpg</t>
+  </si>
+  <si>
+    <t>The Sound Of Music y:1965</t>
   </si>
 </sst>
 </file>
@@ -486,7 +483,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,10 +523,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -550,60 +544,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dist/My Movie Library.xlsx
+++ b/dist/My Movie Library.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python\TMDBScrappers\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8FF129-549C-41EE-A580-7DE41D10131E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEECFDD9-F810-4ED9-8B61-38CE0EEFD8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4824" yWindow="2160" windowWidth="17280" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,11 +479,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A3:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,37 +492,37 @@
     <col min="7" max="7" width="46.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
     </row>
